--- a/src/test/resources/testData/GetCustomerTestDataExtended.xlsx
+++ b/src/test/resources/testData/GetCustomerTestDataExtended.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>getCustomerById</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>Nikita Sobol</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +518,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
